--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.922188</v>
+        <v>2.726225666666667</v>
       </c>
       <c r="N2">
-        <v>8.766563999999999</v>
+        <v>8.178677</v>
       </c>
       <c r="O2">
-        <v>0.04895158192025818</v>
+        <v>0.0458192930225727</v>
       </c>
       <c r="P2">
-        <v>0.04895158192025817</v>
+        <v>0.0458192930225727</v>
       </c>
       <c r="Q2">
-        <v>289.041729996076</v>
+        <v>97.890527762261</v>
       </c>
       <c r="R2">
-        <v>2601.375569964684</v>
+        <v>881.014749860349</v>
       </c>
       <c r="S2">
-        <v>0.03975272366786688</v>
+        <v>0.02798224155389508</v>
       </c>
       <c r="T2">
-        <v>0.03975272366786687</v>
+        <v>0.02798224155389508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>97.43965</v>
       </c>
       <c r="O3">
-        <v>0.5440928748431295</v>
+        <v>0.5458848509810237</v>
       </c>
       <c r="P3">
-        <v>0.5440928748431295</v>
+        <v>0.5458848509810238</v>
       </c>
       <c r="Q3">
-        <v>3212.675457136017</v>
+        <v>1166.25448877245</v>
       </c>
       <c r="R3">
-        <v>28914.07911422415</v>
+        <v>10496.29039895205</v>
       </c>
       <c r="S3">
-        <v>0.4418483091828982</v>
+        <v>0.3333766357599149</v>
       </c>
       <c r="T3">
-        <v>0.4418483091828982</v>
+        <v>0.3333766357599149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>24.293405</v>
       </c>
       <c r="N4">
-        <v>72.88021499999999</v>
+        <v>72.88021500000001</v>
       </c>
       <c r="O4">
-        <v>0.4069555432366123</v>
+        <v>0.4082958559964036</v>
       </c>
       <c r="P4">
-        <v>0.4069555432366123</v>
+        <v>0.4082958559964037</v>
       </c>
       <c r="Q4">
-        <v>2402.928151335685</v>
+        <v>872.3027831734951</v>
       </c>
       <c r="R4">
-        <v>21626.35336202116</v>
+        <v>7850.725048561455</v>
       </c>
       <c r="S4">
-        <v>0.3304814802868862</v>
+        <v>0.2493498374651313</v>
       </c>
       <c r="T4">
-        <v>0.3304814802868862</v>
+        <v>0.2493498374651313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.922188</v>
+        <v>2.726225666666667</v>
       </c>
       <c r="N5">
-        <v>8.766563999999999</v>
+        <v>8.178677</v>
       </c>
       <c r="O5">
-        <v>0.04895158192025818</v>
+        <v>0.0458192930225727</v>
       </c>
       <c r="P5">
-        <v>0.04895158192025817</v>
+        <v>0.0458192930225727</v>
       </c>
       <c r="Q5">
-        <v>49.81928057306134</v>
+        <v>46.47839269518179</v>
       </c>
       <c r="R5">
-        <v>448.373525157552</v>
+        <v>418.3055342566361</v>
       </c>
       <c r="S5">
-        <v>0.006851786051722436</v>
+        <v>0.01328595974670767</v>
       </c>
       <c r="T5">
-        <v>0.006851786051722435</v>
+        <v>0.01328595974670767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>97.43965</v>
       </c>
       <c r="O6">
-        <v>0.5440928748431295</v>
+        <v>0.5458848509810237</v>
       </c>
       <c r="P6">
-        <v>0.5440928748431295</v>
+        <v>0.5458848509810238</v>
       </c>
       <c r="Q6">
         <v>553.7372752073557</v>
@@ -818,10 +818,10 @@
         <v>4983.6354768662</v>
       </c>
       <c r="S6">
-        <v>0.07615704793288637</v>
+        <v>0.1582871248776892</v>
       </c>
       <c r="T6">
-        <v>0.07615704793288637</v>
+        <v>0.1582871248776892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>24.293405</v>
       </c>
       <c r="N7">
-        <v>72.88021499999999</v>
+        <v>72.88021500000001</v>
       </c>
       <c r="O7">
-        <v>0.4069555432366123</v>
+        <v>0.4082958559964036</v>
       </c>
       <c r="P7">
-        <v>0.4069555432366123</v>
+        <v>0.4082958559964037</v>
       </c>
       <c r="Q7">
-        <v>414.1690951335133</v>
+        <v>414.1690951335135</v>
       </c>
       <c r="R7">
-        <v>3727.52185620162</v>
+        <v>3727.521856201621</v>
       </c>
       <c r="S7">
-        <v>0.05696184281361914</v>
+        <v>0.1183912267010179</v>
       </c>
       <c r="T7">
-        <v>0.05696184281361914</v>
+        <v>0.1183912267010179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.922188</v>
+        <v>2.726225666666667</v>
       </c>
       <c r="N8">
-        <v>8.766563999999999</v>
+        <v>8.178677</v>
       </c>
       <c r="O8">
-        <v>0.04895158192025818</v>
+        <v>0.0458192930225727</v>
       </c>
       <c r="P8">
-        <v>0.04895158192025817</v>
+        <v>0.0458192930225727</v>
       </c>
       <c r="Q8">
-        <v>17.065542853744</v>
+        <v>15.92112517862533</v>
       </c>
       <c r="R8">
-        <v>153.589885683696</v>
+        <v>143.290126607628</v>
       </c>
       <c r="S8">
-        <v>0.002347072200668864</v>
+        <v>0.004551091721969946</v>
       </c>
       <c r="T8">
-        <v>0.002347072200668863</v>
+        <v>0.004551091721969946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>97.43965</v>
       </c>
       <c r="O9">
-        <v>0.5440928748431295</v>
+        <v>0.5458848509810237</v>
       </c>
       <c r="P9">
-        <v>0.5440928748431295</v>
+        <v>0.5458848509810238</v>
       </c>
       <c r="Q9">
         <v>189.6821289080667</v>
@@ -1004,10 +1004,10 @@
         <v>1707.1391601726</v>
       </c>
       <c r="S9">
-        <v>0.02608751772734493</v>
+        <v>0.0542210903434197</v>
       </c>
       <c r="T9">
-        <v>0.02608751772734492</v>
+        <v>0.0542210903434197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>24.293405</v>
       </c>
       <c r="N10">
-        <v>72.88021499999999</v>
+        <v>72.88021500000001</v>
       </c>
       <c r="O10">
-        <v>0.4069555432366123</v>
+        <v>0.4082958559964036</v>
       </c>
       <c r="P10">
-        <v>0.4069555432366123</v>
+        <v>0.4082958559964037</v>
       </c>
       <c r="Q10">
         <v>141.87319367914</v>
@@ -1066,10 +1066,10 @@
         <v>1276.85874311226</v>
       </c>
       <c r="S10">
-        <v>0.01951222013610691</v>
+        <v>0.04055479183025444</v>
       </c>
       <c r="T10">
-        <v>0.0195122201361069</v>
+        <v>0.04055479183025444</v>
       </c>
     </row>
   </sheetData>
